--- a/test plan.xlsx
+++ b/test plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\snnop\yace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A680CC1-2DB5-4399-9310-6A5589B94023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72305C83-A55A-40BD-92CA-69564529336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11810" yWindow="5010" windowWidth="22580" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11810" yWindow="5010" windowWidth="22580" windowHeight="12550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLE" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t xml:space="preserve">CLICK </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +139,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -166,17 +182,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -585,10 +604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209B8C4-027D-4E10-A71C-8A99AD261CB3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -669,8 +688,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{701C6BC8-0394-413A-9C5F-2C1F7D136BD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test plan.xlsx
+++ b/test plan.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\snnop\yace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72305C83-A55A-40BD-92CA-69564529336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC64980-DB0E-464A-A8B3-1507F5B313CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11810" yWindow="5010" windowWidth="22580" windowHeight="12550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BLE" sheetId="1" r:id="rId1"/>
-    <sheet name="Change" sheetId="3" r:id="rId2"/>
-    <sheet name="Config" sheetId="2" r:id="rId3"/>
+    <sheet name="指令关闭WIFI" sheetId="1" r:id="rId1"/>
+    <sheet name="指令开启WIFI" sheetId="4" r:id="rId2"/>
+    <sheet name="指令开启蓝牙" sheetId="7" r:id="rId3"/>
+    <sheet name="指令关闭蓝牙" sheetId="8" r:id="rId4"/>
+    <sheet name="反复设备控制" sheetId="3" r:id="rId5"/>
+    <sheet name="反复开启语音" sheetId="5" r:id="rId6"/>
+    <sheet name="ui反复开启wifi" sheetId="6" r:id="rId7"/>
+    <sheet name="Config" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t xml:space="preserve">CLICK </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,19 +102,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ping_target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWIPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭WIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启WIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭蓝牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svc wifi disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svc wifi enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令关闭wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令开启wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启蓝牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svc bluetooth enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svc bluetooth disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令关闭蓝牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复设备控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令开启蓝牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复开启语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui反复开启wifi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,12 +278,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,10 +568,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35FE166-7784-4EA4-A49E-B99606F1C1B9}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E565C-AF62-459D-8B28-B291EE377272}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB29FD-A95B-4EAB-B315-D3862E6D8AD7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68422C2-1B54-497E-BA26-03993A0C4A19}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -505,16 +812,19 @@
       <c r="B2">
         <v>0.5</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>740</v>
+        <v>1374</v>
       </c>
       <c r="C3">
-        <v>695</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -531,12 +841,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68422C2-1B54-497E-BA26-03993A0C4A19}">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45E5D96-7019-495E-AA20-DE89AD15EE63}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -560,40 +870,32 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>126</v>
-      </c>
-      <c r="C2">
-        <v>58</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>988</v>
+      </c>
+      <c r="C3">
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>133</v>
-      </c>
-      <c r="C4">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -602,12 +904,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C05CF2-29DB-4418-976D-AACEC14A33EA}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>745</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>745</v>
+      </c>
+      <c r="E2" s="3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>503</v>
+      </c>
+      <c r="C4">
+        <v>221</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>503</v>
+      </c>
+      <c r="C6">
+        <v>221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209B8C4-027D-4E10-A71C-8A99AD261CB3}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -640,10 +1041,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -654,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -668,10 +1069,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,7 +1083,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -690,10 +1091,40 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/test plan.xlsx
+++ b/test plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\snnop\yace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC64980-DB0E-464A-A8B3-1507F5B313CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F806B3A-3E92-41D4-9E51-CC8741FE6BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15050" yWindow="5590" windowWidth="17330" windowHeight="14110" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令关闭WIFI" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t xml:space="preserve">CLICK </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,21 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CLICK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,14 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指令关闭wifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令开启wifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开启蓝牙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,7 +178,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>语音要点边角才能退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令关闭WIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令开启WIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ui反复开启wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_whitelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartMirror:D AudioSystem:D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +568,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -623,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35FE166-7784-4EA4-A49E-B99606F1C1B9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,10 +701,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -843,15 +840,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45E5D96-7019-495E-AA20-DE89AD15EE63}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -879,7 +876,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -890,12 +887,26 @@
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>379</v>
+      </c>
+      <c r="C5">
+        <v>844</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>503</v>
@@ -967,7 +978,7 @@
         <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -980,7 +991,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>503</v>
@@ -989,7 +1000,7 @@
         <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1007,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209B8C4-027D-4E10-A71C-8A99AD261CB3}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1055,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>2000</v>
@@ -1069,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1083,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1097,15 +1108,21 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1113,15 +1130,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>2000</v>

--- a/test plan.xlsx
+++ b/test plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\snnop\yace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F806B3A-3E92-41D4-9E51-CC8741FE6BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB7774-BE2F-4744-9AAD-63AA099CFB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15050" yWindow="5590" windowWidth="17330" windowHeight="14110" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="3980" windowWidth="17330" windowHeight="14110" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令关闭WIFI" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t xml:space="preserve">CLICK </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指令关闭WIFI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指令开启WIFI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,14 @@
   </si>
   <si>
     <t>SmartMirror:D AudioSystem:D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35FE166-7784-4EA4-A49E-B99606F1C1B9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -780,7 +784,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -807,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -829,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +847,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -870,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -892,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -920,7 +924,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -964,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1016,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209B8C4-027D-4E10-A71C-8A99AD261CB3}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1052,10 +1056,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1066,10 +1070,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1080,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1094,10 +1098,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1108,39 +1112,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
         <v>2000</v>
       </c>
     </row>
